--- a/downloads/dsdasd.xlsx
+++ b/downloads/dsdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>გასვლები "B" პუნქტიდან</t>
+  </si>
+  <si>
+    <t>MAN A-47</t>
+  </si>
+  <si>
+    <t>BMC Procity</t>
+  </si>
+  <si>
+    <t>Isuzu Novociti Life</t>
+  </si>
+  <si>
+    <t>MAN A-21</t>
+  </si>
+  <si>
+    <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -79,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -99,8 +117,12 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +147,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,16 +190,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -175,30 +210,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.515625" customWidth="true"/>
-    <col min="2" max="2" width="3.515625" customWidth="true"/>
-    <col min="3" max="3" width="3.515625" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="5.078125" customWidth="true"/>
-    <col min="6" max="6" width="5.078125" customWidth="true"/>
-    <col min="7" max="7" width="5.078125" customWidth="true"/>
-    <col min="8" max="8" width="5.078125" customWidth="true"/>
-    <col min="9" max="9" width="5.078125" customWidth="true"/>
-    <col min="10" max="10" width="5.078125" customWidth="true"/>
-    <col min="11" max="11" width="5.078125" customWidth="true"/>
-    <col min="12" max="12" width="5.078125" customWidth="true"/>
-    <col min="13" max="13" width="5.078125" customWidth="true"/>
-    <col min="14" max="14" width="5.078125" customWidth="true"/>
-    <col min="20" max="20" width="5.078125" customWidth="true"/>
-    <col min="15" max="15" width="5.078125" customWidth="true"/>
-    <col min="17" max="17" width="5.078125" customWidth="true"/>
-    <col min="18" max="18" width="5.078125" customWidth="true"/>
+    <col min="1" max="1" width="4.6875" customWidth="true"/>
+    <col min="2" max="2" width="4.6875" customWidth="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true"/>
+    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="17.578125" customWidth="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true"/>
+    <col min="8" max="8" width="8.203125" customWidth="true"/>
+    <col min="9" max="9" width="8.203125" customWidth="true"/>
+    <col min="10" max="10" width="8.203125" customWidth="true"/>
+    <col min="11" max="11" width="8.203125" customWidth="true"/>
+    <col min="12" max="12" width="8.203125" customWidth="true"/>
+    <col min="13" max="13" width="8.203125" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
+    <col min="15" max="15" width="8.203125" customWidth="true"/>
+    <col min="16" max="16" width="8.203125" customWidth="true"/>
+    <col min="17" max="17" width="27.34375" customWidth="true"/>
+    <col min="18" max="18" width="8.203125" customWidth="true"/>
+    <col min="19" max="19" width="8.203125" customWidth="true"/>
+    <col min="20" max="20" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -307,8 +344,2117 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.099998474121094</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="n" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="n" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -324,6 +2470,8 @@
     <mergeCell ref="N1:S2"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/downloads/dsdasd.xlsx
+++ b/downloads/dsdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -96,7 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11.0"/>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -204,6 +207,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -360,8 +365,21 @@
       <c r="G4" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="H4" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O4" t="n" s="5">
+        <v>0.925</v>
+      </c>
+      <c r="P4" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R4" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S4" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -379,8 +397,21 @@
       <c r="G5" t="n" s="4">
         <v>11.0</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="H5" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O5" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="P5" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R5" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S5" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -398,8 +429,21 @@
       <c r="G6" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="H6" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O6" t="n" s="5">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="P6" t="n" s="5">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R6" t="n" s="5">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S6" t="n" s="5">
+        <v>0.9402777777777778</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -417,8 +461,21 @@
       <c r="G7" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="H7" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O7" t="n" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="P7" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R7" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S7" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -436,8 +493,21 @@
       <c r="G8" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="H8" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O8" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="P8" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R8" t="n" s="5">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S8" t="n" s="5">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -455,8 +525,21 @@
       <c r="G9" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="H9" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O9" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P9" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R9" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S9" t="n" s="5">
+        <v>0.9493055555555555</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -474,8 +557,21 @@
       <c r="G10" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="H10" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O10" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="P10" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R10" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S10" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -493,8 +589,21 @@
       <c r="G11" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="H11" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O11" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P11" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R11" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S11" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -512,8 +621,21 @@
       <c r="G12" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="H12" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O12" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P12" t="n" s="5">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="R12" t="n" s="5">
+        <v>0.8840277777777777</v>
+      </c>
+      <c r="S12" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -531,8 +653,21 @@
       <c r="G13" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="H13" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O13" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P13" t="n" s="5">
+        <v>0.9486111111111111</v>
+      </c>
+      <c r="R13" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S13" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -550,8 +685,21 @@
       <c r="G14" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="H14" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O14" t="n" s="5">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P14" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="R14" t="n" s="5">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S14" t="n" s="5">
+        <v>0.9534722222222223</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -569,8 +717,21 @@
       <c r="G15" t="n" s="4">
         <v>11.0</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="H15" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O15" t="n" s="5">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P15" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R15" t="n" s="5">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S15" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -588,8 +749,21 @@
       <c r="G16" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="H16" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O16" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P16" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R16" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S16" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -607,8 +781,21 @@
       <c r="G17" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="H17" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O17" t="n" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="P17" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R17" t="n" s="5">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="S17" t="n" s="5">
+        <v>0.8541666666666666</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -626,8 +813,21 @@
       <c r="G18" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="H18" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O18" t="n" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="P18" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R18" t="n" s="5">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S18" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -645,8 +845,21 @@
       <c r="G19" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="H19" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O19" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P19" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="R19" t="n" s="5">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S19" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -664,8 +877,21 @@
       <c r="G20" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="H20" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O20" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P20" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R20" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S20" t="n" s="5">
+        <v>0.9486111111111111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -683,8 +909,21 @@
       <c r="G21" t="n" s="4">
         <v>11.0</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="H21" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O21" t="n" s="5">
+        <v>0.89375</v>
+      </c>
+      <c r="P21" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R21" t="n" s="5">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S21" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -702,8 +941,21 @@
       <c r="G22" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="H22" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O22" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="P22" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="R22" t="n" s="5">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="S22" t="n" s="5">
+        <v>0.94375</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -721,8 +973,21 @@
       <c r="G23" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="H23" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O23" t="n" s="5">
+        <v>0.9152777777777777</v>
+      </c>
+      <c r="P23" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R23" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S23" t="n" s="5">
+        <v>0.9402777777777778</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -740,8 +1005,21 @@
       <c r="G24" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="H24" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O24" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P24" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R24" t="n" s="5">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="S24" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -759,8 +1037,21 @@
       <c r="G25" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="H25" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O25" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P25" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R25" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S25" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -778,8 +1069,21 @@
       <c r="G26" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="H26" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O26" t="n" s="5">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="P26" t="n" s="5">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R26" t="n" s="5">
+        <v>0.8159722222222222</v>
+      </c>
+      <c r="S26" t="n" s="5">
+        <v>0.8645833333333334</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -797,8 +1101,21 @@
       <c r="G27" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="H27" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O27" t="n" s="5">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P27" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R27" t="n" s="5">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S27" t="n" s="5">
+        <v>0.9451388888888889</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -816,8 +1133,21 @@
       <c r="G28" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="H28" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O28" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P28" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R28" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S28" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -835,8 +1165,21 @@
       <c r="G29" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="H29" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O29" t="n" s="5">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P29" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R29" t="n" s="5">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="S29" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -854,8 +1197,21 @@
       <c r="G30" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="H30" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O30" t="n" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="P30" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R30" t="n" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="S30" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -873,8 +1229,21 @@
       <c r="G31" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="H31" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O31" t="n" s="5">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P31" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R31" t="n" s="5">
+        <v>0.91875</v>
+      </c>
+      <c r="S31" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -892,8 +1261,21 @@
       <c r="G32" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="H32" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O32" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P32" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R32" t="n" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="S32" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -911,8 +1293,21 @@
       <c r="G33" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="H33" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O33" t="n" s="5">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P33" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R33" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S33" t="n" s="5">
+        <v>0.9451388888888889</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -930,8 +1325,21 @@
       <c r="G34" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="H34" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O34" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P34" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R34" t="n" s="5">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S34" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -949,8 +1357,21 @@
       <c r="G35" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="H35" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O35" t="n" s="5">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P35" t="n" s="5">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R35" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S35" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -968,8 +1389,21 @@
       <c r="G36" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="H36" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O36" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P36" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R36" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S36" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -987,8 +1421,21 @@
       <c r="G37" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="H37" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O37" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P37" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R37" t="n" s="5">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S37" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1006,8 +1453,21 @@
       <c r="G38" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="H38" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O38" t="n" s="5">
+        <v>0.925</v>
+      </c>
+      <c r="P38" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R38" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1025,8 +1485,21 @@
       <c r="G39" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="H39" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O39" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P39" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R39" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S39" t="n" s="5">
+        <v>0.9381944444444444</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1044,8 +1517,21 @@
       <c r="G40" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="H40" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O40" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P40" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R40" t="n" s="5">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S40" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1063,8 +1549,21 @@
       <c r="G41" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="H41" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O41" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P41" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R41" t="n" s="5">
+        <v>0.9222222222222223</v>
+      </c>
+      <c r="S41" t="n" s="5">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1082,8 +1581,21 @@
       <c r="G42" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="H42" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O42" t="n" s="5">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="P42" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
+      <c r="R42" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S42" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1101,8 +1613,21 @@
       <c r="G43" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="H43" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O43" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P43" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="R43" t="n" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="S43" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1120,8 +1645,21 @@
       <c r="G44" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="H44" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O44" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P44" t="n" s="5">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="R44" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S44" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1139,8 +1677,21 @@
       <c r="G45" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="H45" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O45" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P45" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R45" t="n" s="5">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="S45" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1158,8 +1709,21 @@
       <c r="G46" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
+      <c r="H46" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O46" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P46" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R46" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S46" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1177,8 +1741,21 @@
       <c r="G47" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
+      <c r="H47" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O47" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P47" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R47" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S47" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1196,8 +1773,21 @@
       <c r="G48" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="H48" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O48" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P48" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R48" t="n" s="5">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S48" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1215,8 +1805,21 @@
       <c r="G49" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
+      <c r="H49" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O49" t="n" s="5">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P49" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R49" t="n" s="5">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S49" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1234,8 +1837,21 @@
       <c r="G50" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
+      <c r="H50" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O50" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P50" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R50" t="n" s="5">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S50" t="n" s="5">
+        <v>0.94375</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1253,8 +1869,21 @@
       <c r="G51" t="n" s="4">
         <v>13.0</v>
       </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
+      <c r="H51" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O51" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P51" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R51" t="n" s="5">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S51" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1272,8 +1901,21 @@
       <c r="G52" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="H52" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O52" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P52" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R52" t="n" s="5">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S52" t="n" s="5">
+        <v>0.9486111111111111</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1291,8 +1933,21 @@
       <c r="G53" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="H53" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O53" t="n" s="5">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="P53" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R53" t="n" s="5">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S53" t="n" s="5">
+        <v>0.94375</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1310,8 +1965,21 @@
       <c r="G54" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
+      <c r="H54" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O54" t="n" s="5">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P54" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R54" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S54" t="n" s="5">
+        <v>0.9493055555555555</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1329,8 +1997,21 @@
       <c r="G55" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="H55" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O55" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P55" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R55" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S55" t="n" s="5">
+        <v>0.9493055555555555</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1348,8 +2029,21 @@
       <c r="G56" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="H56" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O56" t="n" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P56" t="n" s="5">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="R56" t="n" s="5">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S56" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1367,8 +2061,21 @@
       <c r="G57" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="H57" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O57" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P57" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R57" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S57" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1386,8 +2093,21 @@
       <c r="G58" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
+      <c r="H58" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O58" t="n" s="5">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P58" t="n" s="5">
+        <v>0.94375</v>
+      </c>
+      <c r="R58" t="n" s="5">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S58" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1405,8 +2125,21 @@
       <c r="G59" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="H59" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O59" t="n" s="5">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P59" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R59" t="n" s="5">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S59" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1424,8 +2157,21 @@
       <c r="G60" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
+      <c r="H60" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O60" t="n" s="5">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P60" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R60" t="n" s="5">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S60" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1443,8 +2189,21 @@
       <c r="G61" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+      <c r="H61" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O61" t="n" s="5">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P61" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R61" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S61" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1462,8 +2221,21 @@
       <c r="G62" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+      <c r="H62" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O62" t="n" s="5">
+        <v>0.9125</v>
+      </c>
+      <c r="P62" t="n" s="5">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R62" t="n" s="5">
+        <v>0.9125</v>
+      </c>
+      <c r="S62" t="n" s="5">
+        <v>0.9291666666666667</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1481,8 +2253,21 @@
       <c r="G63" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+      <c r="H63" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O63" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P63" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R63" t="n" s="5">
+        <v>0.8701388888888889</v>
+      </c>
+      <c r="S63" t="n" s="5">
+        <v>0.9013888888888889</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1500,8 +2285,21 @@
       <c r="G64" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="H64" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O64" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P64" t="n" s="5">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R64" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S64" t="n" s="5">
+        <v>0.9388888888888889</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1519,8 +2317,21 @@
       <c r="G65" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
+      <c r="H65" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O65" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P65" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R65" t="n" s="5">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S65" t="n" s="5">
+        <v>0.9381944444444444</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1538,8 +2349,21 @@
       <c r="G66" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
+      <c r="H66" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O66" t="n" s="5">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P66" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R66" t="n" s="5">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S66" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1557,8 +2381,21 @@
       <c r="G67" t="n" s="4">
         <v>6.0</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+      <c r="H67" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O67" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P67" t="n" s="5">
+        <v>0.9381944444444444</v>
+      </c>
+      <c r="R67" t="n" s="5">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S67" t="n" s="5">
+        <v>0.9381944444444444</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1576,8 +2413,21 @@
       <c r="G68" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+      <c r="H68" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O68" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P68" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R68" t="n" s="5">
+        <v>0.9284722222222223</v>
+      </c>
+      <c r="S68" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1595,8 +2445,21 @@
       <c r="G69" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
+      <c r="H69" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O69" t="n" s="5">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P69" t="n" s="5">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R69" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S69" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1614,8 +2477,21 @@
       <c r="G70" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="H70" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O70" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P70" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R70" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S70" t="n" s="5">
+        <v>0.9513888888888888</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1633,8 +2509,21 @@
       <c r="G71" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="H71" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O71" t="n" s="5">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P71" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R71" t="n" s="5">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S71" t="n" s="5">
+        <v>0.9270833333333334</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1652,8 +2541,21 @@
       <c r="G72" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="H72" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O72" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P72" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R72" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S72" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1671,8 +2573,21 @@
       <c r="G73" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="H73" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O73" t="n" s="5">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="P73" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R73" t="n" s="5">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="S73" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1690,8 +2605,21 @@
       <c r="G74" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="H74" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O74" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P74" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R74" t="n" s="5">
+        <v>0.8631944444444445</v>
+      </c>
+      <c r="S74" t="n" s="5">
+        <v>0.9118055555555555</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1709,8 +2637,21 @@
       <c r="G75" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="H75" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O75" t="n" s="5">
+        <v>0.8118055555555556</v>
+      </c>
+      <c r="P75" t="n" s="5">
+        <v>0.8743055555555556</v>
+      </c>
+      <c r="R75" t="n" s="5">
+        <v>0.7805555555555556</v>
+      </c>
+      <c r="S75" t="n" s="5">
+        <v>0.8430555555555556</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1728,8 +2669,21 @@
       <c r="G76" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="H76" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O76" t="n" s="5">
+        <v>0.84375</v>
+      </c>
+      <c r="P76" t="n" s="5">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R76" t="n" s="5">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="S76" t="n" s="5">
+        <v>0.84375</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1747,8 +2701,21 @@
       <c r="G77" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="H77" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O77" t="n" s="5">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="P77" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R77" t="n" s="5">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="S77" t="n" s="5">
+        <v>0.9465277777777777</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1766,8 +2733,21 @@
       <c r="G78" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
+      <c r="H78" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O78" t="n" s="5">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P78" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R78" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S78" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1785,8 +2765,21 @@
       <c r="G79" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="H79" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O79" t="n" s="5">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P79" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R79" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="S79" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1804,8 +2797,21 @@
       <c r="G80" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="H80" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O80" t="n" s="5">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="P80" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R80" t="n" s="5">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="S80" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1823,8 +2829,21 @@
       <c r="G81" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="H81" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O81" t="n" s="5">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="P81" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R81" t="n" s="5">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="S81" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1842,8 +2861,21 @@
       <c r="G82" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
+      <c r="H82" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O82" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P82" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R82" t="n" s="5">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S82" t="n" s="5">
+        <v>0.94375</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1861,8 +2893,21 @@
       <c r="G83" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
+      <c r="H83" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O83" t="n" s="5">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P83" t="n" s="5">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R83" t="n" s="5">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="S83" t="n" s="5">
+        <v>0.9298611111111111</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1880,8 +2925,21 @@
       <c r="G84" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="H84" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O84" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P84" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R84" t="n" s="5">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S84" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1899,8 +2957,21 @@
       <c r="G85" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="H85" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O85" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="P85" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R85" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S85" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1918,8 +2989,21 @@
       <c r="G86" t="n" s="4">
         <v>7.0</v>
       </c>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
+      <c r="H86" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O86" t="n" s="5">
+        <v>0.8965277777777778</v>
+      </c>
+      <c r="P86" t="n" s="5">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R86" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S86" t="n" s="5">
+        <v>0.9458333333333333</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1937,8 +3021,21 @@
       <c r="G87" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+      <c r="H87" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O87" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P87" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R87" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S87" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1956,8 +3053,21 @@
       <c r="G88" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="H88" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O88" t="n" s="5">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="P88" t="n" s="5">
+        <v>0.9534722222222223</v>
+      </c>
+      <c r="R88" t="n" s="5">
+        <v>0.9069444444444444</v>
+      </c>
+      <c r="S88" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1975,8 +3085,21 @@
       <c r="G89" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="H89" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O89" t="n" s="5">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P89" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R89" t="n" s="5">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="S89" t="n" s="5">
+        <v>0.9506944444444444</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1994,8 +3117,21 @@
       <c r="G90" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="H90" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O90" t="n" s="5">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P90" t="n" s="5">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="R90" t="n" s="5">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="S90" t="n" s="5">
+        <v>0.8888888888888888</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2013,8 +3149,21 @@
       <c r="G91" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="H91" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O91" t="n" s="5">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P91" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R91" t="n" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S91" t="n" s="5">
+        <v>0.8993055555555556</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2032,8 +3181,21 @@
       <c r="G92" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="H92" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O92" t="n" s="5">
+        <v>0.8756944444444444</v>
+      </c>
+      <c r="P92" t="n" s="5">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="R92" t="n" s="5">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S92" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2051,8 +3213,21 @@
       <c r="G93" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
+      <c r="H93" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O93" t="n" s="5">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="P93" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R93" t="n" s="5">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="S93" t="n" s="5">
+        <v>0.90625</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2070,8 +3245,21 @@
       <c r="G94" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
+      <c r="H94" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O94" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P94" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R94" t="n" s="5">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S94" t="n" s="5">
+        <v>0.9520833333333333</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2089,8 +3277,21 @@
       <c r="G95" t="n" s="4">
         <v>1.0</v>
       </c>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
+      <c r="H95" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O95" t="n" s="5">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P95" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R95" t="n" s="5">
+        <v>0.8694444444444445</v>
+      </c>
+      <c r="S95" t="n" s="5">
+        <v>0.9180555555555555</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2108,8 +3309,21 @@
       <c r="G96" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
+      <c r="H96" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O96" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P96" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R96" t="n" s="5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S96" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2127,8 +3341,21 @@
       <c r="G97" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
+      <c r="H97" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O97" t="n" s="5">
+        <v>0.89375</v>
+      </c>
+      <c r="P97" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="R97" t="n" s="5">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="S97" t="n" s="5">
+        <v>0.8819444444444444</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2146,8 +3373,21 @@
       <c r="G98" t="n" s="4">
         <v>5.0</v>
       </c>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+      <c r="H98" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O98" t="n" s="5">
+        <v>0.925</v>
+      </c>
+      <c r="P98" t="n" s="5">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R98" t="n" s="5">
+        <v>0.93125</v>
+      </c>
+      <c r="S98" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2165,8 +3405,21 @@
       <c r="G99" t="n" s="4">
         <v>2.0</v>
       </c>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+      <c r="H99" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O99" t="n" s="5">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P99" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R99" t="n" s="5">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="S99" t="n" s="5">
+        <v>0.9229166666666667</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2184,8 +3437,21 @@
       <c r="G100" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+      <c r="H100" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O100" t="n" s="5">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P100" t="n" s="5">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R100" t="n" s="5">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S100" t="n" s="5">
+        <v>0.9527777777777777</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2203,8 +3469,21 @@
       <c r="G101" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
+      <c r="H101" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O101" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="P101" t="n" s="5">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R101" t="n" s="5">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S101" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2222,8 +3501,21 @@
       <c r="G102" t="n" s="4">
         <v>16.0</v>
       </c>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+      <c r="H102" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O102" t="n" s="5">
+        <v>0.9354166666666667</v>
+      </c>
+      <c r="P102" t="n" s="5">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R102" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S102" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2241,8 +3533,21 @@
       <c r="G103" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
+      <c r="H103" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O103" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P103" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R103" t="n" s="5">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S103" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2260,8 +3565,21 @@
       <c r="G104" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
+      <c r="H104" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O104" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P104" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R104" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S104" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2279,8 +3597,21 @@
       <c r="G105" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
+      <c r="H105" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O105" t="n" s="5">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P105" t="n" s="5">
+        <v>0.9375</v>
+      </c>
+      <c r="R105" t="n" s="5">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="S105" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2298,8 +3629,21 @@
       <c r="G106" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
+      <c r="H106" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O106" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="P106" t="n" s="5">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R106" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="S106" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2317,8 +3661,21 @@
       <c r="G107" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
+      <c r="H107" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O107" t="n" s="5">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="P107" t="n" s="5">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R107" t="n" s="5">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S107" t="n" s="5">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2336,8 +3693,21 @@
       <c r="G108" t="n" s="4">
         <v>9.0</v>
       </c>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
+      <c r="H108" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O108" t="n" s="5">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="P108" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R108" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S108" t="n" s="5">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2355,8 +3725,21 @@
       <c r="G109" t="n" s="4">
         <v>15.0</v>
       </c>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
+      <c r="H109" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O109" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P109" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R109" t="n" s="5">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S109" t="n" s="5">
+        <v>0.9409722222222222</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2374,8 +3757,21 @@
       <c r="G110" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
+      <c r="H110" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O110" t="n" s="5">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="P110" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R110" t="n" s="5">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S110" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2393,8 +3789,21 @@
       <c r="G111" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
+      <c r="H111" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O111" t="n" s="5">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P111" t="n" s="5">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R111" t="n" s="5">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S111" t="n" s="5">
+        <v>0.9388888888888889</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2412,8 +3821,21 @@
       <c r="G112" t="n" s="4">
         <v>8.0</v>
       </c>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
+      <c r="H112" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O112" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P112" t="n" s="5">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R112" t="n" s="5">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S112" t="n" s="5">
+        <v>0.9416666666666667</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2431,8 +3853,21 @@
       <c r="G113" t="n" s="4">
         <v>3.0</v>
       </c>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
+      <c r="H113" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O113" t="n" s="5">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P113" t="n" s="5">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R113" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="S113" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2450,8 +3885,21 @@
       <c r="G114" t="n" s="4">
         <v>4.0</v>
       </c>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
+      <c r="H114" t="n" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="O114" t="n" s="5">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="P114" t="n" s="5">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R114" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="S114" t="s" s="5">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
